--- a/OrbisGame/Container/Data/AllaroundDataStorage.xlsx
+++ b/OrbisGame/Container/Data/AllaroundDataStorage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABF5577-9F41-40F3-8FD4-7B1383ADA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E988A63-5C92-4C9C-A7A0-9B5183A11B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cityencounter" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="Tierfähigkeiten" sheetId="7" r:id="rId7"/>
     <sheet name="Tränke" sheetId="8" r:id="rId8"/>
     <sheet name="Musiksys" sheetId="10" r:id="rId9"/>
+    <sheet name="Namendaten" sheetId="11" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="Itemliste">'[1]Itemliste_ not_updated'!$A$2:$A$388</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="1049">
   <si>
     <t>number</t>
   </si>
@@ -3159,6 +3160,42 @@
   </si>
   <si>
     <t>Rock</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Andi</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Kasper</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Arn Oris</t>
+  </si>
+  <si>
+    <t>Ankhor</t>
+  </si>
+  <si>
+    <t>Masud</t>
+  </si>
+  <si>
+    <t>Ozier</t>
+  </si>
+  <si>
+    <t>Abet</t>
   </si>
 </sst>
 </file>
@@ -9730,6 +9767,983 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6602FEE7-AC8B-4C4B-A436-96621FF6C07E}">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA8528-CA1D-44E7-B17C-2F6193A1D2FF}">
   <dimension ref="A1:C10"/>
@@ -33080,10 +34094,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AD0A91-0A48-49C9-9072-AA10625C1335}">
   <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47120,7 +48134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAC3CC7-ADE1-4349-9F0B-8B6F00A35AB0}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
